--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.30652267834351</v>
+        <v>4.117659</v>
       </c>
       <c r="H2">
-        <v>3.30652267834351</v>
+        <v>12.352977</v>
       </c>
       <c r="I2">
-        <v>0.3998357301682138</v>
+        <v>0.411783455701328</v>
       </c>
       <c r="J2">
-        <v>0.3998357301682138</v>
+        <v>0.4117834557013281</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N2">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q2">
-        <v>32.99798210164563</v>
+        <v>70.68591675326999</v>
       </c>
       <c r="R2">
-        <v>32.99798210164563</v>
+        <v>636.17325077943</v>
       </c>
       <c r="S2">
-        <v>0.01340164280191727</v>
+        <v>0.02307409640158157</v>
       </c>
       <c r="T2">
-        <v>0.01340164280191727</v>
+        <v>0.02307409640158158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.30652267834351</v>
+        <v>4.117659</v>
       </c>
       <c r="H3">
-        <v>3.30652267834351</v>
+        <v>12.352977</v>
       </c>
       <c r="I3">
-        <v>0.3998357301682138</v>
+        <v>0.411783455701328</v>
       </c>
       <c r="J3">
-        <v>0.3998357301682138</v>
+        <v>0.4117834557013281</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N3">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q3">
-        <v>845.3614781443748</v>
+        <v>1055.950201854548</v>
       </c>
       <c r="R3">
-        <v>845.3614781443748</v>
+        <v>9503.551816690931</v>
       </c>
       <c r="S3">
-        <v>0.343331071993845</v>
+        <v>0.3446952076452232</v>
       </c>
       <c r="T3">
-        <v>0.343331071993845</v>
+        <v>0.3446952076452232</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.30652267834351</v>
+        <v>4.117659</v>
       </c>
       <c r="H4">
-        <v>3.30652267834351</v>
+        <v>12.352977</v>
       </c>
       <c r="I4">
-        <v>0.3998357301682138</v>
+        <v>0.411783455701328</v>
       </c>
       <c r="J4">
-        <v>0.3998357301682138</v>
+        <v>0.4117834557013281</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N4">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q4">
-        <v>106.1297149020889</v>
+        <v>134.834344351798</v>
       </c>
       <c r="R4">
-        <v>106.1297149020889</v>
+        <v>1213.509099166182</v>
       </c>
       <c r="S4">
-        <v>0.04310301537245152</v>
+        <v>0.04401415165452327</v>
       </c>
       <c r="T4">
-        <v>0.04310301537245152</v>
+        <v>0.04401415165452328</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.64861107438257</v>
+        <v>3.004148</v>
       </c>
       <c r="H5">
-        <v>2.64861107438257</v>
+        <v>9.012444</v>
       </c>
       <c r="I5">
-        <v>0.320278868732245</v>
+        <v>0.3004276082303642</v>
       </c>
       <c r="J5">
-        <v>0.320278868732245</v>
+        <v>0.3004276082303643</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N5">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q5">
-        <v>26.43224599641373</v>
+        <v>51.57079676644</v>
       </c>
       <c r="R5">
-        <v>26.43224599641373</v>
+        <v>464.13717089796</v>
       </c>
       <c r="S5">
-        <v>0.01073506610813874</v>
+        <v>0.01683432274421424</v>
       </c>
       <c r="T5">
-        <v>0.01073506610813874</v>
+        <v>0.01683432274421425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.64861107438257</v>
+        <v>3.004148</v>
       </c>
       <c r="H6">
-        <v>2.64861107438257</v>
+        <v>9.012444</v>
       </c>
       <c r="I6">
-        <v>0.320278868732245</v>
+        <v>0.3004276082303642</v>
       </c>
       <c r="J6">
-        <v>0.320278868732245</v>
+        <v>0.3004276082303643</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N6">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q6">
-        <v>677.1566357413624</v>
+        <v>770.3966469785227</v>
       </c>
       <c r="R6">
-        <v>677.1566357413624</v>
+        <v>6933.569822806704</v>
       </c>
       <c r="S6">
-        <v>0.2750171609039441</v>
+        <v>0.2514815866629515</v>
       </c>
       <c r="T6">
-        <v>0.2750171609039441</v>
+        <v>0.2514815866629515</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.64861107438257</v>
+        <v>3.004148</v>
       </c>
       <c r="H7">
-        <v>2.64861107438257</v>
+        <v>9.012444</v>
       </c>
       <c r="I7">
-        <v>0.320278868732245</v>
+        <v>0.3004276082303642</v>
       </c>
       <c r="J7">
-        <v>0.320278868732245</v>
+        <v>0.3004276082303643</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N7">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q7">
-        <v>85.01267511389342</v>
+        <v>98.37199387218934</v>
       </c>
       <c r="R7">
-        <v>85.01267511389342</v>
+        <v>885.347944849704</v>
       </c>
       <c r="S7">
-        <v>0.03452664172016213</v>
+        <v>0.03211169882319852</v>
       </c>
       <c r="T7">
-        <v>0.03452664172016213</v>
+        <v>0.03211169882319852</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.31456909987399</v>
+        <v>2.877766666666667</v>
       </c>
       <c r="H8">
-        <v>2.31456909987399</v>
+        <v>8.6333</v>
       </c>
       <c r="I8">
-        <v>0.2798854010995411</v>
+        <v>0.2877889360683077</v>
       </c>
       <c r="J8">
-        <v>0.2798854010995411</v>
+        <v>0.2877889360683077</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N8">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q8">
-        <v>23.09861965589983</v>
+        <v>49.40126781633332</v>
       </c>
       <c r="R8">
-        <v>23.09861965589983</v>
+        <v>444.611410347</v>
       </c>
       <c r="S8">
-        <v>0.009381163032701832</v>
+        <v>0.01612612056703207</v>
       </c>
       <c r="T8">
-        <v>0.009381163032701832</v>
+        <v>0.01612612056703208</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.31456909987399</v>
+        <v>2.877766666666667</v>
       </c>
       <c r="H9">
-        <v>2.31456909987399</v>
+        <v>8.6333</v>
       </c>
       <c r="I9">
-        <v>0.2798854010995411</v>
+        <v>0.2877889360683077</v>
       </c>
       <c r="J9">
-        <v>0.2798854010995411</v>
+        <v>0.2877889360683077</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N9">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q9">
-        <v>591.7538592286339</v>
+        <v>737.9868737447555</v>
       </c>
       <c r="R9">
-        <v>591.7538592286339</v>
+        <v>6641.8818637028</v>
       </c>
       <c r="S9">
-        <v>0.2403320852653802</v>
+        <v>0.2409020219307058</v>
       </c>
       <c r="T9">
-        <v>0.2403320852653802</v>
+        <v>0.2409020219307059</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.31456909987399</v>
+        <v>2.877766666666667</v>
       </c>
       <c r="H10">
-        <v>2.31456909987399</v>
+        <v>8.6333</v>
       </c>
       <c r="I10">
-        <v>0.2798854010995411</v>
+        <v>0.2877889360683077</v>
       </c>
       <c r="J10">
-        <v>0.2798854010995411</v>
+        <v>0.2877889360683077</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N10">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q10">
-        <v>74.29090394561371</v>
+        <v>94.23358799197777</v>
       </c>
       <c r="R10">
-        <v>74.29090394561371</v>
+        <v>848.1022919278</v>
       </c>
       <c r="S10">
-        <v>0.03017215280145901</v>
+        <v>0.03076079357056973</v>
       </c>
       <c r="T10">
-        <v>0.03017215280145901</v>
+        <v>0.03076079357056974</v>
       </c>
     </row>
   </sheetData>
